--- a/PPT/football_02.xlsx
+++ b/PPT/football_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxu/Work/HKJC/PPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61FA4703-F998-8F46-80D4-7A52B83FEF89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8977E6B5-F2E8-E946-9FE8-9609472A13A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{83FBA817-66F1-CC46-90A5-00E6AF395ADC}"/>
   </bookViews>
@@ -92,10 +92,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,84 +410,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264CE790-FD14-0241-ABCC-159AA7E30C4C}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+      <c r="A3" s="1">
+        <v>43792</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>43792</v>
+      <c r="A4" s="1">
+        <v>43779</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -506,29 +527,29 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>43779</v>
+      <c r="A5" s="1">
+        <v>43771</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>13</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -538,20 +559,20 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>43771</v>
+      <c r="A6" s="1">
+        <v>43765</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>13</v>
@@ -570,29 +591,29 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>43765</v>
+      <c r="A7" s="1">
+        <v>43758</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>13</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -602,61 +623,61 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>43758</v>
+      <c r="A8" s="1">
+        <v>43743</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>14</v>
       </c>
       <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
         <v>13</v>
-      </c>
-      <c r="G8">
-        <v>9</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>43743</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>14</v>
       </c>
       <c r="F9">
         <v>15</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -666,26 +687,26 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>43736</v>
+      <c r="A10" s="1">
+        <v>43730</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10">
         <v>15</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>9</v>
@@ -698,29 +719,29 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>43730</v>
+      <c r="A11" s="1">
+        <v>43722</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>15</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -730,29 +751,20 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>43722</v>
+      <c r="A12" s="1">
+        <v>43708</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>15</v>
-      </c>
-      <c r="G12">
-        <v>15</v>
-      </c>
-      <c r="H12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -762,20 +774,20 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>43708</v>
+      <c r="A13" s="1">
+        <v>43701</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -785,20 +797,20 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>43701</v>
+      <c r="A14" s="1">
+        <v>43694</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -808,20 +820,20 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>43694</v>
+      <c r="A15" s="1">
+        <v>43686</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -830,34 +842,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>43686</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
